--- a/Project checklist/Roadmap.xlsx
+++ b/Project checklist/Roadmap.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\2025\Projects\Home Temp Monitor\Project checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4F019B-78AB-4D74-B987-F2B32A54436D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F7ADDD-D969-483D-A166-4A589AEB393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Home Temp Monitor Roadmap</t>
   </si>
@@ -39,9 +48,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>01.07.2025</t>
-  </si>
-  <si>
     <t>Project module:</t>
   </si>
   <si>
@@ -64,13 +70,46 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>- transform all repeatable code into functions</t>
+  </si>
+  <si>
+    <t>- create repetitive measurements that are added to the SD card</t>
+  </si>
+  <si>
+    <t>- create error log csv file</t>
+  </si>
+  <si>
+    <t>- create a base of errors that can occur</t>
+  </si>
+  <si>
+    <t>- make voltage monitor for supply (dummy)</t>
+  </si>
+  <si>
+    <t>- create debounce function?</t>
+  </si>
+  <si>
+    <t>- implement new buttons for menu/error handling</t>
+  </si>
+  <si>
+    <t>25.06.2025</t>
+  </si>
+  <si>
+    <t>- hightlight if humidity too high/low</t>
+  </si>
+  <si>
+    <t>To do list:</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +141,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF269E3D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,18 +190,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -149,6 +225,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF269E3D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -423,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AD9"/>
+  <dimension ref="A2:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,81 +516,81 @@
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="10" customWidth="1"/>
     <col min="10" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="12" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -521,69 +602,408 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="3"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>9</v>
+      <c r="I8" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+    </row>
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+    </row>
+    <row r="14" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="23">
+    <mergeCell ref="N18:AB18"/>
+    <mergeCell ref="N19:AB19"/>
+    <mergeCell ref="N20:AB20"/>
+    <mergeCell ref="N21:AB21"/>
+    <mergeCell ref="N22:AB22"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="A12:AD13"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="N15:AB15"/>
+    <mergeCell ref="N16:AB16"/>
+    <mergeCell ref="N17:AB17"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="A2:AD3"/>
     <mergeCell ref="B7:C8"/>

--- a/Project checklist/Roadmap.xlsx
+++ b/Project checklist/Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\2025\Projects\Home Temp Monitor\Project checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F7ADDD-D969-483D-A166-4A589AEB393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA9CADB-7E23-4B9C-B8F1-B6EA8574B9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Home Temp Monitor Roadmap</t>
   </si>
@@ -103,6 +103,24 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>database of errors that can occur and how many times they appeared</t>
+  </si>
+  <si>
+    <t>- add Comment to initialmeasurements</t>
+  </si>
+  <si>
+    <t>- RTC implementation</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>separate line with a comment noting a new initialization occurred</t>
+  </si>
+  <si>
+    <t>- Error describing SD card not inserted</t>
   </si>
 </sst>
 </file>
@@ -158,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,8 +195,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -186,11 +216,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -198,26 +426,99 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AD22"/>
+  <dimension ref="A2:AD31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,70 +821,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -602,28 +903,28 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="4"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
@@ -664,351 +965,679 @@
       </c>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-    </row>
-    <row r="14" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+    </row>
+    <row r="14" spans="1:30" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+    </row>
+    <row r="15" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N15" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="15"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="30"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="32"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="27"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="17"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="38"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="17"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="17"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="17"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="17"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="17"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="27"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="17"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B27" s="16"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="17"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="17"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B29" s="16"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="17"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="17"/>
+    </row>
+    <row r="31" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="N18:AB18"/>
+  <mergeCells count="39">
+    <mergeCell ref="B19:K19"/>
     <mergeCell ref="N19:AB19"/>
-    <mergeCell ref="N20:AB20"/>
-    <mergeCell ref="N21:AB21"/>
-    <mergeCell ref="N22:AB22"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="A12:AD13"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="N15:AB15"/>
-    <mergeCell ref="N16:AB16"/>
-    <mergeCell ref="N17:AB17"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="N25:AB25"/>
+    <mergeCell ref="N26:AB26"/>
+    <mergeCell ref="N27:AB27"/>
+    <mergeCell ref="N28:AB28"/>
+    <mergeCell ref="N29:AB29"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="N31:AB31"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B29:K29"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="A2:AD3"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A12:AD13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="N16:AB16"/>
+    <mergeCell ref="N17:AB17"/>
+    <mergeCell ref="N18:AB18"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="N20:AB20"/>
+    <mergeCell ref="N21:AB21"/>
+    <mergeCell ref="N22:AB22"/>
+    <mergeCell ref="N23:AB23"/>
+    <mergeCell ref="N24:AB24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
